--- a/data/trans_orig/Q5414-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5354</v>
+        <v>5414</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01061581796677312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05982959111516284</v>
+        <v>0.06049284499033896</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>58834</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55441</v>
+        <v>55019</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -863,7 +863,7 @@
         <v>0.9841088599875309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9273529193776012</v>
+        <v>0.92029091916814</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>88543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84139</v>
+        <v>84079</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>89493</v>
@@ -897,7 +897,7 @@
         <v>0.9893841820332269</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9401704088848351</v>
+        <v>0.9395071550096604</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04700593135308719</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2229529396137269</v>
+        <v>0.2237063266787716</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5209</v>
+        <v>6319</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01188263730392363</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05424750441971093</v>
+        <v>0.06580688966234702</v>
       </c>
     </row>
     <row r="13">
@@ -1271,19 +1271,19 @@
         <v>2597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6282</v>
+        <v>7344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03619584494031416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01105062245230653</v>
+        <v>0.01121867637058997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08754626914759879</v>
+        <v>0.1023487911631374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5241</v>
+        <v>5186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04267926274394805</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2158938440050607</v>
+        <v>0.2136164788849115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1313,19 +1313,19 @@
         <v>3633</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9015</v>
+        <v>9492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03783478921889238</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009681977625480396</v>
+        <v>0.01072161561860952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09387545238189506</v>
+        <v>0.098846355301039</v>
       </c>
     </row>
     <row r="14">
@@ -1342,19 +1342,19 @@
         <v>69157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65472</v>
+        <v>64410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70961</v>
+        <v>70949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9638041550596859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124537308524017</v>
+        <v>0.8976512088368614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9889493775476935</v>
+        <v>0.9887813236294101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1363,7 +1363,7 @@
         <v>22098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1372,7 +1372,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1384,19 +1384,19 @@
         <v>91256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85343</v>
+        <v>85118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>94250</v>
+        <v>94222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.950282573477184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8887155722501919</v>
+        <v>0.886371203396867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814596268582249</v>
+        <v>0.9811745294458517</v>
       </c>
     </row>
     <row r="15">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6766</v>
+        <v>5806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00701495382433793</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0260158620408453</v>
+        <v>0.02232422555329097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6290</v>
+        <v>6406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005275494627866383</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01818808356032722</v>
+        <v>0.01852325583380387</v>
       </c>
     </row>
     <row r="17">
@@ -1551,19 +1551,19 @@
         <v>3716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>941</v>
+        <v>881</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9142</v>
+        <v>8588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01428687254918708</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003618228257123609</v>
+        <v>0.003385877538533677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03515366782288961</v>
+        <v>0.03302287323395736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5306</v>
+        <v>5286</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01227728806699716</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06188108207903238</v>
+        <v>0.06163770147274433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1593,19 +1593,19 @@
         <v>4768</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1819</v>
+        <v>1801</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10799</v>
+        <v>10457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0137885670298401</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005261345101563231</v>
+        <v>0.005208703328941883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0312267758365074</v>
+        <v>0.03023874949749156</v>
       </c>
     </row>
     <row r="18">
@@ -1622,19 +1622,19 @@
         <v>254532</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>248791</v>
+        <v>249001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>257528</v>
+        <v>258124</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.978698173626475</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9566226997232289</v>
+        <v>0.9574297540822738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9902170360546185</v>
+        <v>0.9925088795278232</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>87</v>
@@ -1643,7 +1643,7 @@
         <v>84699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80446</v>
+        <v>80466</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>85752</v>
@@ -1652,7 +1652,7 @@
         <v>0.9877227119330029</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9381189179209677</v>
+        <v>0.9383622985272557</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -1664,19 +1664,19 @@
         <v>339231</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>332539</v>
+        <v>333239</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>342956</v>
+        <v>343083</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9809359383422935</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9615856548711422</v>
+        <v>0.9636074430845487</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9917055118696809</v>
+        <v>0.9920731639382746</v>
       </c>
     </row>
     <row r="19">
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>2.671621453074304e-06</v>
+        <v>2.971295502662361e-06</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>2.094625176468412e-06</v>
+        <v>2.109228485372754e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4231</v>
+        <v>4611</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0149760885067738</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07629016737330291</v>
+        <v>0.08314163113503428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8178</v>
+        <v>8943</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02411739077542803</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08497112096269212</v>
+        <v>0.09291707874149624</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1873,19 +1873,19 @@
         <v>3152</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8481</v>
+        <v>9083</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02077543566541076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005357047087892261</v>
+        <v>0.005518824374313976</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05590288527816919</v>
+        <v>0.05987064606339174</v>
       </c>
     </row>
     <row r="22">
@@ -1902,7 +1902,7 @@
         <v>54634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51234</v>
+        <v>50854</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>55465</v>
@@ -1911,7 +1911,7 @@
         <v>0.9850239114932262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.923709832626697</v>
+        <v>0.9168583688649679</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>93929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88072</v>
+        <v>87307</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>96250</v>
@@ -1932,10 +1932,10 @@
         <v>0.9758820325522373</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9150286513796142</v>
+        <v>0.9070826762772624</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9999994154822577</v>
+        <v>0.9999988354597334</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -1944,19 +1944,19 @@
         <v>148563</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143234</v>
+        <v>142632</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>150902</v>
+        <v>150878</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9792241984870363</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9440965793862689</v>
+        <v>0.9401279682691153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9946429446468416</v>
+        <v>0.9944808068935983</v>
       </c>
     </row>
     <row r="23">
@@ -2061,19 +2061,19 @@
         <v>3222</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9037</v>
+        <v>9103</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007579849432502749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002109736328484372</v>
+        <v>0.002102586600366191</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02126027084648463</v>
+        <v>0.02141595562407727</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>3222</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8655</v>
+        <v>9051</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007515404612818998</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002074773920561749</v>
+        <v>0.002078721957857135</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02018787276787013</v>
+        <v>0.02111094772618205</v>
       </c>
     </row>
     <row r="25">
@@ -2124,19 +2124,19 @@
         <v>4286</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1145</v>
+        <v>1064</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10624</v>
+        <v>10584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01008322794841988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002693673818162049</v>
+        <v>0.002504137094824667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02499407725790267</v>
+        <v>0.02489984176516313</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2145,19 +2145,19 @@
         <v>4286</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1061</v>
+        <v>1070</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10698</v>
+        <v>9656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009997499094205491</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002475800763888372</v>
+        <v>0.002496602556464647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02495392894990588</v>
+        <v>0.0225221132624441</v>
       </c>
     </row>
     <row r="26">
@@ -2187,19 +2187,19 @@
         <v>417562</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>410389</v>
+        <v>410079</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>421853</v>
+        <v>421878</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9823369226190773</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9654617409383303</v>
+        <v>0.9647336096381547</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9924319229797419</v>
+        <v>0.9924916612097915</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>409</v>
@@ -2208,19 +2208,19 @@
         <v>421207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>413275</v>
+        <v>413558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>425467</v>
+        <v>425729</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9824870962929755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9639863028244363</v>
+        <v>0.9646444505947463</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.992423271729453</v>
+        <v>0.9930344876868574</v>
       </c>
     </row>
     <row r="27">
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6432</v>
+        <v>6502</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003637504735206363</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01282477492331501</v>
+        <v>0.01296453093258678</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2333,19 +2333,19 @@
         <v>4363</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2354,19 +2354,19 @@
         <v>6188</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2339</v>
+        <v>2127</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12991</v>
+        <v>13032</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.005250796742736869</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001984848702739276</v>
+        <v>0.001805031458675245</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01102448587417906</v>
+        <v>0.01105932746480619</v>
       </c>
     </row>
     <row r="29">
@@ -2383,19 +2383,19 @@
         <v>8094</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3587</v>
+        <v>3681</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15015</v>
+        <v>14056</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01613697152492977</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007151412698698339</v>
+        <v>0.007338946990613085</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02993646608849206</v>
+        <v>0.02802450806361408</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2404,19 +2404,19 @@
         <v>8696</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4211</v>
+        <v>4231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16955</v>
+        <v>17290</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01284825081611815</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006221519777470142</v>
+        <v>0.006251013134590166</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02505000575282022</v>
+        <v>0.02554508757334463</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -2425,19 +2425,19 @@
         <v>16790</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10186</v>
+        <v>10210</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>25876</v>
+        <v>26248</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01424800538690516</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008643623554705736</v>
+        <v>0.008664169898134261</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02195845252458848</v>
+        <v>0.0222742383109005</v>
       </c>
     </row>
     <row r="30">
@@ -2454,19 +2454,19 @@
         <v>491633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>484134</v>
+        <v>485030</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>496337</v>
+        <v>496342</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9802255237398638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9652728241761422</v>
+        <v>0.9670604884869719</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9896038956322639</v>
+        <v>0.9896137796841701</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>648</v>
@@ -2475,19 +2475,19 @@
         <v>663783</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>654554</v>
+        <v>654809</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>670238</v>
+        <v>669963</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9807054768759151</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9670700562150728</v>
+        <v>0.9674472432768692</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9902425103068391</v>
+        <v>0.9898367963869905</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1159</v>
@@ -2496,19 +2496,19 @@
         <v>1155416</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1144815</v>
+        <v>1145856</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1162644</v>
+        <v>1164002</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9805011978703579</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9715051573629042</v>
+        <v>0.9723886785404862</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9866354653097422</v>
+        <v>0.987787540630605</v>
       </c>
     </row>
     <row r="31">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="6">
@@ -2965,7 +2965,7 @@
         <v>24189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19470</v>
+        <v>19759</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -2974,7 +2974,7 @@
         <v>0.9565200299502267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7698961428320276</v>
+        <v>0.781308622751258</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>68107</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63682</v>
+        <v>63574</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>69207</v>
@@ -2995,7 +2995,7 @@
         <v>0.9841118414255997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9201720839097056</v>
+        <v>0.9186038096802147</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5352</v>
+        <v>5389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05796467111718722</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2831433272509084</v>
+        <v>0.2850968805133176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5673</v>
+        <v>4955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01377600285900316</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07132748397781563</v>
+        <v>0.06230266576291003</v>
       </c>
     </row>
     <row r="9">
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4981</v>
+        <v>5725</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01825553143033202</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08215061456890306</v>
+        <v>0.09441770874231588</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5634</v>
+        <v>5812</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.298069881508649</v>
+        <v>0.3074551670108447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6859</v>
+        <v>7846</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0279125490925622</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08624648014028113</v>
+        <v>0.09865337045287224</v>
       </c>
     </row>
     <row r="10">
@@ -3224,7 +3224,7 @@
         <v>59523</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55649</v>
+        <v>54905</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>60630</v>
@@ -3233,7 +3233,7 @@
         <v>0.981744468569668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.917849385431097</v>
+        <v>0.9055822912576841</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>16693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11990</v>
+        <v>12078</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18902</v>
@@ -3254,7 +3254,7 @@
         <v>0.8831463961318494</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6343359911177578</v>
+        <v>0.6389828669818506</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -3266,19 +3266,19 @@
         <v>76215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70615</v>
+        <v>70887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78472</v>
+        <v>78483</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9583114480484346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8878871224002614</v>
+        <v>0.8913115129464891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9866812134968795</v>
+        <v>0.9868200212625393</v>
       </c>
     </row>
     <row r="11">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5118</v>
+        <v>5018</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005725906679293886</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02953682905011073</v>
+        <v>0.02896324564555674</v>
       </c>
     </row>
     <row r="13">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6850</v>
+        <v>7403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01725543144593734</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05772764737192684</v>
+        <v>0.06239365177955589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7248</v>
+        <v>7159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01181647447172512</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04182970312336688</v>
+        <v>0.04131464801320514</v>
       </c>
     </row>
     <row r="14">
@@ -3496,19 +3496,19 @@
         <v>115613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110222</v>
+        <v>109540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117710</v>
+        <v>117718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9743831075779644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9289420781656993</v>
+        <v>0.9231962962668112</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9920515352383774</v>
+        <v>0.9921167613935261</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -3530,19 +3530,19 @@
         <v>170228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>164714</v>
+        <v>164694</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>172308</v>
+        <v>172317</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.982457618848981</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9506309952582556</v>
+        <v>0.9505169704362773</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9944598205237112</v>
+        <v>0.9945135477002756</v>
       </c>
     </row>
     <row r="15">
@@ -3634,19 +3634,19 @@
         <v>3116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8461</v>
+        <v>8514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01344660392389972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004246902111531632</v>
+        <v>0.004326023787917768</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03650905651925795</v>
+        <v>0.03673714647892401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3668,19 +3668,19 @@
         <v>3116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8397</v>
+        <v>8413</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01067777752340203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003407581092700621</v>
+        <v>0.003342213215679843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02877259241395588</v>
+        <v>0.02882618952313954</v>
       </c>
     </row>
     <row r="17">
@@ -3697,19 +3697,19 @@
         <v>9678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4179</v>
+        <v>4330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19424</v>
+        <v>19399</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04176059801767885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01803100887578361</v>
+        <v>0.01868288200377969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08381135437597374</v>
+        <v>0.08370529858678115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -3731,19 +3731,19 @@
         <v>9678</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3440</v>
+        <v>4276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20114</v>
+        <v>19345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03316156089675897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01178848212243827</v>
+        <v>0.01465247384934568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06891775251272901</v>
+        <v>0.06628540438312944</v>
       </c>
     </row>
     <row r="18">
@@ -3760,19 +3760,19 @@
         <v>218959</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>208385</v>
+        <v>208346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>225341</v>
+        <v>225211</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9447927980584214</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8991691614158345</v>
+        <v>0.8989980747690192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9723328327749939</v>
+        <v>0.9717725484849624</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -3794,19 +3794,19 @@
         <v>279054</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>268882</v>
+        <v>269252</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>286405</v>
+        <v>285425</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.956160661579839</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9213099231915527</v>
+        <v>0.9225752547102124</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.981350640639664</v>
+        <v>0.9779920206549314</v>
       </c>
     </row>
     <row r="19">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7027</v>
+        <v>6354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0197667911048966</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0684242824143983</v>
+        <v>0.06187103581610835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -3919,19 +3919,19 @@
         <v>5552</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13384</v>
+        <v>12304</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02947164925351876</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01105112051303606</v>
+        <v>0.01098650585408181</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07104153937943747</v>
+        <v>0.06530818379383985</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -3940,19 +3940,19 @@
         <v>7582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3563</v>
+        <v>3109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15649</v>
+        <v>14870</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02604787391047509</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01223957997409148</v>
+        <v>0.01067956420373871</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05376047826374485</v>
+        <v>0.0510830252168363</v>
       </c>
     </row>
     <row r="21">
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4396</v>
+        <v>5063</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01000230407531869</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04280330151392419</v>
+        <v>0.04929760249622137</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -3990,19 +3990,19 @@
         <v>6383</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3048</v>
+        <v>2253</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13925</v>
+        <v>13089</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03387977966710368</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01617759295745274</v>
+        <v>0.01196017873064439</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07391019512518887</v>
+        <v>0.06947712971253175</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -4011,19 +4011,19 @@
         <v>7410</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3186</v>
+        <v>3123</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14236</v>
+        <v>15011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02545604889913907</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01094450198056864</v>
+        <v>0.01072692632307222</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04890401751740228</v>
+        <v>0.0515682517707854</v>
       </c>
     </row>
     <row r="22">
@@ -4040,19 +4040,19 @@
         <v>99639</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93613</v>
+        <v>94474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101699</v>
+        <v>101704</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9702309048197847</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9115563512267023</v>
+        <v>0.9199388794011614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9902918887318813</v>
+        <v>0.9903371388453175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -4061,19 +4061,19 @@
         <v>176465</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>166631</v>
+        <v>167822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181827</v>
+        <v>182054</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9366485710793776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.884450732705777</v>
+        <v>0.89077238805503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9651119676781442</v>
+        <v>0.9663142143643835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>259</v>
@@ -4082,19 +4082,19 @@
         <v>276103</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>266868</v>
+        <v>266380</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>282109</v>
+        <v>282815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9484960771903859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9167708833166969</v>
+        <v>0.9150940402820645</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9691255076333541</v>
+        <v>0.9715514814492787</v>
       </c>
     </row>
     <row r="23">
@@ -4199,19 +4199,19 @@
         <v>6505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13158</v>
+        <v>13081</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0164812070727154</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005606602736221393</v>
+        <v>0.005604938218719719</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03333628829424443</v>
+        <v>0.0331410731522825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4220,19 +4220,19 @@
         <v>6505</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2386</v>
+        <v>2253</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13125</v>
+        <v>12704</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01639862386006005</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006015335661685897</v>
+        <v>0.005680021719055082</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0330856630843153</v>
+        <v>0.03202427613736081</v>
       </c>
     </row>
     <row r="25">
@@ -4262,19 +4262,19 @@
         <v>13025</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6583</v>
+        <v>7004</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22312</v>
+        <v>22876</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03299892906186277</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01667768658540779</v>
+        <v>0.01774425501358622</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05652812386286789</v>
+        <v>0.05795818146987638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -4283,19 +4283,19 @@
         <v>13025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7146</v>
+        <v>6549</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21891</v>
+        <v>22441</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.032833579669425</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01801398099478512</v>
+        <v>0.01650967284429056</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05518340425658923</v>
+        <v>0.05657026430543669</v>
       </c>
     </row>
     <row r="26">
@@ -4325,19 +4325,19 @@
         <v>375174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>364712</v>
+        <v>364675</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>382880</v>
+        <v>383173</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9505198638654219</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9240137821111265</v>
+        <v>0.9239199768822198</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9700444000736352</v>
+        <v>0.9707861095483903</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>353</v>
@@ -4346,19 +4346,19 @@
         <v>377162</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>366406</v>
+        <v>366375</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>384894</v>
+        <v>384780</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9507677964705149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9236539031906611</v>
+        <v>0.9235748453277949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9702587942298546</v>
+        <v>0.9699719908622966</v>
       </c>
     </row>
     <row r="27">
@@ -4450,19 +4450,19 @@
         <v>6138</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2966</v>
+        <v>2069</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13330</v>
+        <v>12321</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01096848490119195</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005299994504862984</v>
+        <v>0.003697893221933146</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02381866449756179</v>
+        <v>0.02201656591090905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -4471,19 +4471,19 @@
         <v>13153</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7202</v>
+        <v>6751</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22409</v>
+        <v>21382</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0177266915528104</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009706772070294589</v>
+        <v>0.009098391727650994</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03020102628363554</v>
+        <v>0.02881684251852332</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -4492,19 +4492,19 @@
         <v>19292</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11953</v>
+        <v>12226</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>30544</v>
+        <v>29776</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01482102110606423</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009182953356983449</v>
+        <v>0.009392691079653974</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02346601356606982</v>
+        <v>0.02287606127439773</v>
       </c>
     </row>
     <row r="29">
@@ -4521,19 +4521,19 @@
         <v>13860</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7420</v>
+        <v>7535</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24340</v>
+        <v>25538</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02476529535231574</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01325787687762773</v>
+        <v>0.01346425412092368</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04349241851146981</v>
+        <v>0.04563286234928123</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -4542,19 +4542,19 @@
         <v>21620</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13409</v>
+        <v>13232</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33425</v>
+        <v>32784</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02913786339823865</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0180715268659257</v>
+        <v>0.01783273346006994</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04504663515229814</v>
+        <v>0.04418308074178597</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -4563,19 +4563,19 @@
         <v>35480</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24750</v>
+        <v>23472</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>50699</v>
+        <v>50312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02725789103243622</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01901409083784199</v>
+        <v>0.01803291048284472</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03894994184343879</v>
+        <v>0.03865269248107327</v>
       </c>
     </row>
     <row r="30">
@@ -4592,19 +4592,19 @@
         <v>539639</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>528963</v>
+        <v>527851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>547348</v>
+        <v>547199</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9642662197464923</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9451901298596301</v>
+        <v>0.9432018923058232</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9780406281469549</v>
+        <v>0.9777753438279506</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>662</v>
@@ -4613,19 +4613,19 @@
         <v>707231</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>693915</v>
+        <v>694325</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>717786</v>
+        <v>718803</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.953135445048951</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9351887008845245</v>
+        <v>0.9357410391891174</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9673605900104404</v>
+        <v>0.9687308329684499</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1149</v>
@@ -4634,19 +4634,19 @@
         <v>1246870</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1229626</v>
+        <v>1229070</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1259922</v>
+        <v>1260033</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9579210878614995</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.944673302912963</v>
+        <v>0.944245724094956</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9679480514027263</v>
+        <v>0.9680332625997203</v>
       </c>
     </row>
     <row r="31">
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6956</v>
+        <v>7046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01303626473287373</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06590828906465615</v>
+        <v>0.06676355562504785</v>
       </c>
     </row>
     <row r="6">
@@ -5103,7 +5103,7 @@
         <v>35512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29922</v>
+        <v>30412</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5112,7 +5112,7 @@
         <v>0.9627040069345654</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8111690604689827</v>
+        <v>0.8244444451238445</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>104159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98579</v>
+        <v>98489</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>105535</v>
@@ -5133,7 +5133,7 @@
         <v>0.9869637352671262</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9340917109353439</v>
+        <v>0.9332364443749521</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3833</v>
+        <v>4656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01709365262730424</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0718568759960312</v>
+        <v>0.08728094214505915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3888</v>
+        <v>5185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01285514895598794</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05481197258294829</v>
+        <v>0.07309532540556307</v>
       </c>
     </row>
     <row r="9">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0191261313083843</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09563015008483731</v>
+        <v>0.09533399087203125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5526</v>
+        <v>5962</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01438365879322538</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07791052135298308</v>
+        <v>0.08404630890212209</v>
       </c>
     </row>
     <row r="10">
@@ -5354,7 +5354,7 @@
         <v>51412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47666</v>
+        <v>47153</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>53344</v>
@@ -5363,7 +5363,7 @@
         <v>0.9637802160643114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8935652974225209</v>
+        <v>0.883934907425727</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5388,7 +5388,7 @@
         <v>69000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64793</v>
+        <v>64250</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>70932</v>
@@ -5397,7 +5397,7 @@
         <v>0.9727611922507867</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9134549070111461</v>
+        <v>0.905793884662826</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4255</v>
+        <v>3858</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006353078986776129</v>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03538393318599248</v>
+        <v>0.03207685421737369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3935</v>
+        <v>3954</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004589586059626804</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02363873008118379</v>
+        <v>0.02375169660230977</v>
       </c>
     </row>
     <row r="14">
@@ -5602,7 +5602,7 @@
         <v>119497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116006</v>
+        <v>116403</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>120261</v>
@@ -5611,7 +5611,7 @@
         <v>0.9936469210132238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9646160668140066</v>
+        <v>0.9679231457826263</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         <v>165706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162535</v>
+        <v>162516</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>166470</v>
@@ -5645,7 +5645,7 @@
         <v>0.9954104139403732</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9763612699188161</v>
+        <v>0.9762483033976902</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5787,19 +5787,19 @@
         <v>3459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>888</v>
+        <v>836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9102</v>
+        <v>8656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01696625715292612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004353900479560264</v>
+        <v>0.00409856444482362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04464712937970647</v>
+        <v>0.04246258249116754</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8985</v>
+        <v>9136</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0273674442995125</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09071432226030683</v>
+        <v>0.09223980600594792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5829,19 +5829,19 @@
         <v>6169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2535</v>
+        <v>2507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12661</v>
+        <v>13658</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02036734640195874</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008368407710976451</v>
+        <v>0.008277716654126426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04180019845288428</v>
+        <v>0.04508982802766802</v>
       </c>
     </row>
     <row r="18">
@@ -5858,19 +5858,19 @@
         <v>200397</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>194754</v>
+        <v>195200</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202968</v>
+        <v>203020</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9830337428470739</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9553528706202932</v>
+        <v>0.9575374175088326</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9956460995204397</v>
+        <v>0.9959014355551764</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -5879,7 +5879,7 @@
         <v>96335</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90061</v>
+        <v>89910</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>99046</v>
@@ -5888,7 +5888,7 @@
         <v>0.9726325557004875</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9092856777396944</v>
+        <v>0.9077601939940518</v>
       </c>
       <c r="P18" s="6" t="n">
         <v>1</v>
@@ -5900,19 +5900,19 @@
         <v>296733</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>290241</v>
+        <v>289244</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>300367</v>
+        <v>300395</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9796326535980413</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9581998015471157</v>
+        <v>0.9549101719723317</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9916315922890235</v>
+        <v>0.9917222833458735</v>
       </c>
     </row>
     <row r="19">
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7739</v>
+        <v>6785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008442735325471316</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04850817479937208</v>
+        <v>0.04252844347370387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7525</v>
+        <v>7528</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004419844474614928</v>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02469008231901185</v>
+        <v>0.02470034747386187</v>
       </c>
     </row>
     <row r="21">
@@ -6067,19 +6067,19 @@
         <v>3338</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8389</v>
+        <v>8581</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02298680732601881</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005680550143990857</v>
+        <v>0.005669914619445297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05776485877330956</v>
+        <v>0.05908774973237321</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -6088,19 +6088,19 @@
         <v>6442</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2476</v>
+        <v>2506</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13056</v>
+        <v>12858</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04037605380862638</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01551851759801604</v>
+        <v>0.01570643460245878</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08183037348382499</v>
+        <v>0.08059006620781353</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -6109,19 +6109,19 @@
         <v>9780</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4723</v>
+        <v>4705</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17633</v>
+        <v>17867</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03209022725107486</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01549583094792288</v>
+        <v>0.01543628719215977</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05785797987765001</v>
+        <v>0.05862520840839686</v>
       </c>
     </row>
     <row r="22">
@@ -6138,19 +6138,19 @@
         <v>141883</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>136832</v>
+        <v>136640</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144396</v>
+        <v>144398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9770131926739812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9422351412266904</v>
+        <v>0.9409122502676267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9943194498560092</v>
+        <v>0.9943300853805547</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -6159,19 +6159,19 @@
         <v>151761</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>143505</v>
+        <v>144093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>155841</v>
+        <v>156790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9511812108659023</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8994357482501419</v>
+        <v>0.903120965090999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.976754816415776</v>
+        <v>0.9826989226310167</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -6180,19 +6180,19 @@
         <v>293644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>284719</v>
+        <v>284986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>298796</v>
+        <v>299248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9634899282743102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9342060612876878</v>
+        <v>0.935083748160501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9803958119431175</v>
+        <v>0.9818783714624049</v>
       </c>
     </row>
     <row r="23">
@@ -6293,19 +6293,19 @@
         <v>8006</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2524</v>
+        <v>2470</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16371</v>
+        <v>16612</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01938076002925368</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006110332040486641</v>
+        <v>0.005980072392017578</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03963179344472419</v>
+        <v>0.04021509226115336</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -6314,19 +6314,19 @@
         <v>8006</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2524</v>
+        <v>2470</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16371</v>
+        <v>16612</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01938076002925368</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006110332040486641</v>
+        <v>0.005980072392017578</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03963179344472419</v>
+        <v>0.04021509226115336</v>
       </c>
     </row>
     <row r="25">
@@ -6352,19 +6352,19 @@
         <v>11072</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5022</v>
+        <v>5145</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19786</v>
+        <v>21278</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0268023564553453</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01215651257785792</v>
+        <v>0.01245561796915189</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04789749299682158</v>
+        <v>0.05151041046905736</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -6373,19 +6373,19 @@
         <v>11072</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5022</v>
+        <v>5145</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19786</v>
+        <v>21278</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0268023564553453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01215651257785792</v>
+        <v>0.01245561796915189</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04789749299682158</v>
+        <v>0.05151041046905736</v>
       </c>
     </row>
     <row r="26">
@@ -6411,19 +6411,19 @@
         <v>394006</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>383250</v>
+        <v>382729</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>402340</v>
+        <v>402071</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9538168835154011</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9277798113388142</v>
+        <v>0.9265175586905995</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.973992225582053</v>
+        <v>0.9733409334330299</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>332</v>
@@ -6432,19 +6432,19 @@
         <v>394006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>383250</v>
+        <v>382729</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>402340</v>
+        <v>402071</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9538168835154011</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9277798113388142</v>
+        <v>0.9265175586905995</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.973992225582053</v>
+        <v>0.9733409334330299</v>
       </c>
     </row>
     <row r="27">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5159</v>
+        <v>5309</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001542021745721652</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008725063339439303</v>
+        <v>0.008977842348289276</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -6545,19 +6545,19 @@
         <v>9353</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3820</v>
+        <v>3810</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19102</v>
+        <v>18526</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01210944153954334</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00494580801295954</v>
+        <v>0.004932449837498068</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02473151985241234</v>
+        <v>0.0239854695504581</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -6566,19 +6566,19 @@
         <v>10265</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4705</v>
+        <v>4540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19683</v>
+        <v>19323</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007527166839138083</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003450193881756655</v>
+        <v>0.003329170324381957</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01443352678856751</v>
+        <v>0.01416996109006078</v>
       </c>
     </row>
     <row r="29">
@@ -6595,19 +6595,19 @@
         <v>8581</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4278</v>
+        <v>4550</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15218</v>
+        <v>15665</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01451160060330047</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007235041103060154</v>
+        <v>0.00769378710440354</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02573514881445515</v>
+        <v>0.0264913575982695</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -6616,19 +6616,19 @@
         <v>21600</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12273</v>
+        <v>13430</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34432</v>
+        <v>33910</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.027966104568168</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0158895312470061</v>
+        <v>0.01738777736467669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04458051716217773</v>
+        <v>0.04390446923748297</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -6637,19 +6637,19 @@
         <v>30181</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20404</v>
+        <v>20077</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>44104</v>
+        <v>44530</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02213192419797393</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01496245360870651</v>
+        <v>0.01472279473259715</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03234195287332817</v>
+        <v>0.03265407676182425</v>
       </c>
     </row>
     <row r="30">
@@ -6666,19 +6666,19 @@
         <v>581835</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>574710</v>
+        <v>574420</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>586370</v>
+        <v>586161</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9839463776509779</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9718964063480081</v>
+        <v>0.9714072891331518</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9916159317077841</v>
+        <v>0.9912617611997274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>626</v>
@@ -6687,19 +6687,19 @@
         <v>741411</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>725717</v>
+        <v>726319</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>752781</v>
+        <v>752120</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9599244538922886</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9396053755383751</v>
+        <v>0.9403838565099318</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9746458686184726</v>
+        <v>0.9737899181867848</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1242</v>
@@ -6708,19 +6708,19 @@
         <v>1323246</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1305756</v>
+        <v>1307015</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1335505</v>
+        <v>1335394</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9703409089628879</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9575153508860679</v>
+        <v>0.958438637844274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9793305362414247</v>
+        <v>0.9792488315444837</v>
       </c>
     </row>
     <row r="31">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3336</v>
+        <v>3236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0118582245605322</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06023016944185627</v>
+        <v>0.05843503274155969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3606</v>
+        <v>3051</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00410221906430791</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02252247976364273</v>
+        <v>0.01905554620654733</v>
       </c>
     </row>
     <row r="9">
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3140</v>
+        <v>3222</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0057440100733454</v>
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02998347762508603</v>
+        <v>0.03077398639198933</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -7370,16 +7370,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3306</v>
+        <v>2956</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.003756934562321626</v>
+        <v>0.003756934562321627</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02064874749596108</v>
+        <v>0.01846153916699949</v>
       </c>
     </row>
     <row r="10">
@@ -7396,16 +7396,16 @@
         <v>104114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101575</v>
+        <v>101493</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>104715</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9942559899266546</v>
+        <v>0.9942559899266545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9700165223749139</v>
+        <v>0.969226013608012</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -7417,16 +7417,16 @@
         <v>54728</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52049</v>
+        <v>52149</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>55385</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9881417754394678</v>
+        <v>0.9881417754394679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9397698305581438</v>
+        <v>0.9415649672584401</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -7438,7 +7438,7 @@
         <v>158842</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>155713</v>
+        <v>155656</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>160100</v>
@@ -7447,7 +7447,7 @@
         <v>0.9921408463733703</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9725987225801946</v>
+        <v>0.9722418649788701</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2950</v>
+        <v>3013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007291245269198813</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02623065987487393</v>
+        <v>0.02679206263211431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -7579,16 +7579,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2940</v>
+        <v>2738</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.004811354703868541</v>
+        <v>0.00481135470386854</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0172499213887314</v>
+        <v>0.01606531078705244</v>
       </c>
     </row>
     <row r="13">
@@ -7605,19 +7605,19 @@
         <v>1992</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5829</v>
+        <v>6352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0177068737146336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004314986804723964</v>
+        <v>0.004331840495546697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05182276154171574</v>
+        <v>0.05647789115942204</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4933</v>
+        <v>4430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02034692927678679</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08508930727761918</v>
+        <v>0.07642736082613617</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -7647,19 +7647,19 @@
         <v>3171</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>944</v>
+        <v>1258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7415</v>
+        <v>7898</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01860480659698894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005538195237442591</v>
+        <v>0.007379754846864861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04350415750800475</v>
+        <v>0.04633869420676179</v>
       </c>
     </row>
     <row r="14">
@@ -7676,19 +7676,19 @@
         <v>109659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106076</v>
+        <v>105926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111632</v>
+        <v>111627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9750018810161675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.94314413343049</v>
+        <v>0.9418074528050496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9925439566505649</v>
+        <v>0.9924938093733783</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -7697,16 +7697,16 @@
         <v>56790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53037</v>
+        <v>53540</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>57970</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9796530707232134</v>
+        <v>0.9796530707232133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.914910692722382</v>
+        <v>0.9235726391738638</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -7718,19 +7718,19 @@
         <v>166450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162109</v>
+        <v>162226</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168919</v>
+        <v>168813</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9765838386991426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9511149108450928</v>
+        <v>0.9517988501696346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.991073049930939</v>
+        <v>0.9904465178692864</v>
       </c>
     </row>
     <row r="15">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1738</v>
+        <v>1951</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001316061164482493</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006683962367378723</v>
+        <v>0.007502275538536856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -7843,19 +7843,19 @@
         <v>1150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3092</v>
+        <v>3198</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008788208122635822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002387517577654582</v>
+        <v>0.002340207771235571</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02362379835165791</v>
+        <v>0.02443089455584515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -7864,19 +7864,19 @@
         <v>1492</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>410</v>
+        <v>346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3827</v>
+        <v>3680</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003817953073866323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001049988747000166</v>
+        <v>0.0008850132668164388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00979145397080146</v>
+        <v>0.009414343433666794</v>
       </c>
     </row>
     <row r="17">
@@ -7893,19 +7893,19 @@
         <v>4994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2319</v>
+        <v>2238</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9535</v>
+        <v>9465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01920788504743932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008920873777184143</v>
+        <v>0.008609168800644816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03667328020098022</v>
+        <v>0.03640163645583461</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7914,19 +7914,19 @@
         <v>1491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4246</v>
+        <v>4708</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01138892771919198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002560159584085051</v>
+        <v>0.002578641265737071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0324420162590625</v>
+        <v>0.03597466861798426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -7935,19 +7935,19 @@
         <v>6485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3346</v>
+        <v>3371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11333</v>
+        <v>11758</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01658987094936086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008559195477686339</v>
+        <v>0.008624679166645041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0289926129454678</v>
+        <v>0.030080938447272</v>
       </c>
     </row>
     <row r="18">
@@ -7964,19 +7964,19 @@
         <v>254670</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>250055</v>
+        <v>250072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>257373</v>
+        <v>257466</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9794760537880782</v>
+        <v>0.9794760537880783</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9617292789240013</v>
+        <v>0.9617942729321711</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9898748120642982</v>
+        <v>0.9902297854408099</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>253</v>
@@ -7985,19 +7985,19 @@
         <v>128239</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>125505</v>
+        <v>125311</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129938</v>
+        <v>129789</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9798228641581722</v>
+        <v>0.9798228641581721</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.958928935633597</v>
+        <v>0.9574508256522174</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9928061708506256</v>
+        <v>0.9916630530805143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>615</v>
@@ -8006,19 +8006,19 @@
         <v>382909</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>378002</v>
+        <v>376981</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>386183</v>
+        <v>386220</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9795921759767727</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9670400350602055</v>
+        <v>0.9644275522395485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9879687683253865</v>
+        <v>0.9880618425241298</v>
       </c>
     </row>
     <row r="19">
@@ -8113,16 +8113,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3519</v>
+        <v>3918</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.009437127713181051</v>
+        <v>0.009437127713181052</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03491096501182114</v>
+        <v>0.03886757346537786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -8131,19 +8131,19 @@
         <v>3472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7340</v>
+        <v>7379</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0157621409444961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007340126119536377</v>
+        <v>0.007272085734801637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03332743236323953</v>
+        <v>0.03350438829091423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -8152,19 +8152,19 @@
         <v>4423</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2059</v>
+        <v>2096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8509</v>
+        <v>8649</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01377632970750789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00641425130558295</v>
+        <v>0.006528748181437991</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02650628771367713</v>
+        <v>0.0269398444488715</v>
       </c>
     </row>
     <row r="21">
@@ -8181,19 +8181,19 @@
         <v>1428</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3969</v>
+        <v>4092</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01416987331147112</v>
+        <v>0.01416987331147113</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003972632688683248</v>
+        <v>0.003877519377206348</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03938059958702246</v>
+        <v>0.04060252833231353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -8202,19 +8202,19 @@
         <v>9111</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5788</v>
+        <v>5662</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14136</v>
+        <v>14614</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.04136998511461435</v>
+        <v>0.04136998511461436</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02627944797384982</v>
+        <v>0.02570875047703002</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06418339406701232</v>
+        <v>0.06635451640251164</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -8223,19 +8223,19 @@
         <v>10540</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6844</v>
+        <v>6392</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15890</v>
+        <v>15467</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03283019465242312</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02131692010591387</v>
+        <v>0.01991098763746641</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04949462388301073</v>
+        <v>0.04817760666145005</v>
       </c>
     </row>
     <row r="22">
@@ -8252,19 +8252,19 @@
         <v>98414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95492</v>
+        <v>95101</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99967</v>
+        <v>99892</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9763929989753478</v>
+        <v>0.9763929989753479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9474061076166969</v>
+        <v>0.9435251975424517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9918071032483562</v>
+        <v>0.9910617211123307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>416</v>
@@ -8273,19 +8273,19 @@
         <v>207661</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>201677</v>
+        <v>201152</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211681</v>
+        <v>211787</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9428678739408896</v>
+        <v>0.9428678739408894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9156966055236753</v>
+        <v>0.913314675722314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9611188509251497</v>
+        <v>0.9616007335166049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>559</v>
@@ -8294,19 +8294,19 @@
         <v>306075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>299479</v>
+        <v>300875</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>310791</v>
+        <v>311092</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9533934756400689</v>
+        <v>0.9533934756400688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9328500105840106</v>
+        <v>0.9371982009986251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9680857879869763</v>
+        <v>0.9690220009207015</v>
       </c>
     </row>
     <row r="23">
@@ -8411,19 +8411,19 @@
         <v>2859</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6134</v>
+        <v>6303</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008267441210816564</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003225536627416447</v>
+        <v>0.003166559263934432</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0177400449515465</v>
+        <v>0.01822682724224785</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -8432,19 +8432,19 @@
         <v>2859</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1075</v>
+        <v>1198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6084</v>
+        <v>6400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.008189845639842959</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.003079092127781233</v>
+        <v>0.003431301094055457</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01743006640911772</v>
+        <v>0.01833395009985464</v>
       </c>
     </row>
     <row r="25">
@@ -8474,19 +8474,19 @@
         <v>13804</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8306</v>
+        <v>8656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20680</v>
+        <v>21278</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03992003044209004</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02402037951835161</v>
+        <v>0.02503292969059218</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05980669589267091</v>
+        <v>0.06153691944095465</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -8495,19 +8495,19 @@
         <v>13804</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7981</v>
+        <v>8434</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21091</v>
+        <v>21498</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03954535374630842</v>
+        <v>0.03954535374630841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02286445654588067</v>
+        <v>0.02416255082504851</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06042385405043921</v>
+        <v>0.06158863320368042</v>
       </c>
     </row>
     <row r="26">
@@ -8537,19 +8537,19 @@
         <v>329121</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>322508</v>
+        <v>321175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>335170</v>
+        <v>334719</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9518125283470934</v>
+        <v>0.9518125283470936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9326896625156937</v>
+        <v>0.928833989108283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9693086607564561</v>
+        <v>0.9680039355251342</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>614</v>
@@ -8558,19 +8558,19 @@
         <v>332397</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>325344</v>
+        <v>323763</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338602</v>
+        <v>337958</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9522648006138488</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9320609734465282</v>
+        <v>0.9275312012189679</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.970041912399309</v>
+        <v>0.9681961059092833</v>
       </c>
     </row>
     <row r="27">
@@ -8662,19 +8662,19 @@
         <v>2113</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4776</v>
+        <v>4927</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003012042438501357</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0009688606619613703</v>
+        <v>0.0009926152376983047</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006806725868532182</v>
+        <v>0.007021391296138178</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -8683,19 +8683,19 @@
         <v>8137</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4879</v>
+        <v>4774</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14060</v>
+        <v>13175</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009196461503006329</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005514128316698898</v>
+        <v>0.005395162810645854</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01589006934973412</v>
+        <v>0.01489014717540237</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -8704,19 +8704,19 @@
         <v>10251</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6498</v>
+        <v>6793</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15379</v>
+        <v>15222</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.006461245039809302</v>
+        <v>0.006461245039809303</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004095758187076391</v>
+        <v>0.004281582018135487</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009693979263351242</v>
+        <v>0.009594784280368274</v>
       </c>
     </row>
     <row r="29">
@@ -8733,19 +8733,19 @@
         <v>9015</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4945</v>
+        <v>5073</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14697</v>
+        <v>14432</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01284860508716623</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007048249270336805</v>
+        <v>0.007229288622478861</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02094551349393648</v>
+        <v>0.02056800778805289</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -8754,19 +8754,19 @@
         <v>25585</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>18865</v>
+        <v>19051</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34501</v>
+        <v>34399</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02891574311148402</v>
+        <v>0.02891574311148403</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02132055151634834</v>
+        <v>0.02153072939037023</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03899194871810241</v>
+        <v>0.03887655554238769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>62</v>
@@ -8775,19 +8775,19 @@
         <v>34601</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26540</v>
+        <v>26456</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>44610</v>
+        <v>45944</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02180964309106267</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01672881482163379</v>
+        <v>0.01667568881021352</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02811854781027583</v>
+        <v>0.02895990610482464</v>
       </c>
     </row>
     <row r="30">
@@ -8804,19 +8804,19 @@
         <v>690534</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>684085</v>
+        <v>684858</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>694989</v>
+        <v>695031</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9841393524743327</v>
+        <v>0.9841393524743324</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9749478400229546</v>
+        <v>0.9760493220044602</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9904876315293774</v>
+        <v>0.9905474908704918</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1610</v>
@@ -8825,19 +8825,19 @@
         <v>851099</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>841359</v>
+        <v>841709</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>859493</v>
+        <v>858640</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9618877953855097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9508800096580795</v>
+        <v>0.9512763741460083</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9713752844549568</v>
+        <v>0.9704114498456132</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2597</v>
@@ -8846,19 +8846,19 @@
         <v>1541633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1530079</v>
+        <v>1530275</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1550253</v>
+        <v>1550544</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9717291118691279</v>
+        <v>0.9717291118691281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.964446747976026</v>
+        <v>0.9645699725155366</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9771625567888574</v>
+        <v>0.9773461850013813</v>
       </c>
     </row>
     <row r="31">
